--- a/Intelligibility/intelligibility_jaccard.xlsx
+++ b/Intelligibility/intelligibility_jaccard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,11 +559,6 @@
           <t>v70_intelligibility_jaccard</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 25_intelligibility_jaccard</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -643,9 +638,6 @@
       <c r="Y2" t="n">
         <v>0.1452380952380952</v>
       </c>
-      <c r="Z2" t="n">
-        <v>0.1097883597883597</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -725,9 +717,6 @@
       <c r="Y3" t="n">
         <v>0.1168831168831168</v>
       </c>
-      <c r="Z3" t="n">
-        <v>0.09846153846153841</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -807,9 +796,6 @@
       <c r="Y4" t="n">
         <v>0.1715686274509804</v>
       </c>
-      <c r="Z4" t="n">
-        <v>0.1084656084656084</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -889,9 +875,6 @@
       <c r="Y5" t="n">
         <v>0.1009615384615384</v>
       </c>
-      <c r="Z5" t="n">
-        <v>0.1111111111111111</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -971,9 +954,6 @@
       <c r="Y6" t="n">
         <v>0.1079545454545454</v>
       </c>
-      <c r="Z6" t="n">
-        <v>0.1169230769230769</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1053,9 +1033,6 @@
       <c r="Y7" t="n">
         <v>0.1576923076923077</v>
       </c>
-      <c r="Z7" t="n">
-        <v>0.125</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1135,9 +1112,6 @@
       <c r="Y8" t="n">
         <v>0.6036414565826331</v>
       </c>
-      <c r="Z8" t="n">
-        <v>0.113095238095238</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1217,9 +1191,6 @@
       <c r="Y9" t="n">
         <v>0.6532738095238095</v>
       </c>
-      <c r="Z9" t="n">
-        <v>0.1037037037037037</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1299,9 +1270,6 @@
       <c r="Y10" t="n">
         <v>0.6228070175438596</v>
       </c>
-      <c r="Z10" t="n">
-        <v>0.114074074074074</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1381,9 +1349,6 @@
       <c r="Y11" t="n">
         <v>0.440340909090909</v>
       </c>
-      <c r="Z11" t="n">
-        <v>0.1184615384615384</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1463,9 +1428,6 @@
       <c r="Y12" t="n">
         <v>0.09934318555008199</v>
       </c>
-      <c r="Z12" t="n">
-        <v>0.09846153846153841</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1545,9 +1507,6 @@
       <c r="Y13" t="n">
         <v>0.1574074074074073</v>
       </c>
-      <c r="Z13" t="n">
-        <v>0.094074074074074</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1627,9 +1586,6 @@
       <c r="Y14" t="n">
         <v>0.067287784679089</v>
       </c>
-      <c r="Z14" t="n">
-        <v>0.0883870967741935</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1709,9 +1665,6 @@
       <c r="Y15" t="n">
         <v>0.0881818181818181</v>
       </c>
-      <c r="Z15" t="n">
-        <v>0.1216666666666666</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1791,9 +1744,6 @@
       <c r="Y16" t="n">
         <v>0.1671428571428571</v>
       </c>
-      <c r="Z16" t="n">
-        <v>0.1114285714285714</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1873,9 +1823,6 @@
       <c r="Y17" t="n">
         <v>0.06926406926406919</v>
       </c>
-      <c r="Z17" t="n">
-        <v>0.0714285714285714</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1955,9 +1902,6 @@
       <c r="Y18" t="n">
         <v>0.0489247311827956</v>
       </c>
-      <c r="Z18" t="n">
-        <v>0.094074074074074</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2037,9 +1981,6 @@
       <c r="Y19" t="n">
         <v>0.0572100313479623</v>
       </c>
-      <c r="Z19" t="n">
-        <v>0.0744047619047619</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2119,9 +2060,6 @@
       <c r="Y20" t="n">
         <v>0.06944444444444441</v>
       </c>
-      <c r="Z20" t="n">
-        <v>0.0776923076923077</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2201,9 +2139,6 @@
       <c r="Y21" t="n">
         <v>0.0791925465838509</v>
       </c>
-      <c r="Z21" t="n">
-        <v>0.07000000000000001</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2283,9 +2218,6 @@
       <c r="Y22" t="n">
         <v>0.0884615384615384</v>
       </c>
-      <c r="Z22" t="n">
-        <v>0.0755555555555555</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2365,9 +2297,6 @@
       <c r="Y23" t="n">
         <v>0.0572413793103448</v>
       </c>
-      <c r="Z23" t="n">
-        <v>0.0734126984126984</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2447,9 +2376,6 @@
       <c r="Y24" t="n">
         <v>0</v>
       </c>
-      <c r="Z24" t="n">
-        <v>0.0755494505494505</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2529,9 +2455,6 @@
       <c r="Y25" t="n">
         <v>0.08749999999999999</v>
       </c>
-      <c r="Z25" t="n">
-        <v>0.0717241379310344</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2611,9 +2534,6 @@
       <c r="Y26" t="n">
         <v>0.0277777777777777</v>
       </c>
-      <c r="Z26" t="n">
-        <v>0.0833333333333333</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2693,9 +2613,6 @@
       <c r="Y27" t="n">
         <v>0.0263157894736842</v>
       </c>
-      <c r="Z27" t="n">
-        <v>0.0755494505494505</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2775,9 +2692,6 @@
       <c r="Y28" t="n">
         <v>0.1053113553113553</v>
       </c>
-      <c r="Z28" t="n">
-        <v>0.0727969348659003</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2857,9 +2771,6 @@
       <c r="Y29" t="n">
         <v>0.0726190476190476</v>
       </c>
-      <c r="Z29" t="n">
-        <v>0.06347826086956521</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2939,9 +2850,6 @@
       <c r="Y30" t="n">
         <v>0.025</v>
       </c>
-      <c r="Z30" t="n">
-        <v>0.0755494505494505</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3020,9 +2928,6 @@
       </c>
       <c r="Y31" t="n">
         <v>0.1081818181818181</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.0776923076923077</v>
       </c>
     </row>
   </sheetData>
